--- a/data/trans_dic/P55$voluntario-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P55$voluntario-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -534,7 +535,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población a la que, al menos, tiene ayuda de voluntariado cuando tiene dificultades en la actividades instrumentales</t>
+          <t>Población a la que, al menos, le ayuda alguien de un voluntariado cuando tiene dificultades en la actividades instrumentales</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -744,7 +745,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,61</t>
+          <t>0,0; 2,86</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -759,12 +760,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,2</t>
+          <t>0,0; 1,21</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,9</t>
+          <t>0,0; 1,89</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -779,7 +780,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,99</t>
+          <t>0,0; 0,87</t>
         </is>
       </c>
     </row>
@@ -879,7 +880,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,35</t>
+          <t>0,0; 9,21</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -919,7 +920,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,59</t>
+          <t>0,0; 3,69</t>
         </is>
       </c>
     </row>
@@ -1159,12 +1160,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,01</t>
+          <t>0,0; 1,96</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,05</t>
+          <t>0,0; 2,51</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1179,12 +1180,12 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,88</t>
+          <t>0,0; 0,94</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,95</t>
+          <t>0,0; 1,32</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
@@ -1199,7 +1200,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,98</t>
+          <t>0,0; 0,96</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población a la que, al menos, le ayuda alguien de un voluntariado cuando tiene dificultades en la actividades instrumentales</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>1167</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>1167</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1763</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2163</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1690</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1149</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5897</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2075</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2353</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 3110</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5849</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2111</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2108</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>0; 3098</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>613</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>613</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1679</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1999</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1614</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 3963</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1958</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2113</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2367</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>0; 896</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1884</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2124</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2109</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>0; 3608</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2177</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1154</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1565</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1151</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1815</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1603</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2067</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0; 919</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2091</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1704</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2029</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1050</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>613</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>1167</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1167</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>1226</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1811</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2156</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1700</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>0; 3059</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 5806</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2089</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2375</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>0; 3070</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>0; 4726</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2118</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2120</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>0; 4607</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>